--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Whtasapp Web.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Whtasapp Web.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HLR" sheetId="1" r:id="rId1"/>
+    <sheet name="Testcase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -333,6 +334,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Whtasapp Web.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Whtasapp Web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,57 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Facebook Login Page</t>
+  </si>
+  <si>
+    <t>Test Plan Created Date</t>
+  </si>
+  <si>
+    <t>Developer Name</t>
+  </si>
+  <si>
+    <t>Jay Prajapati</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Himanshu Koshti</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Feature No</t>
+  </si>
+  <si>
+    <t>Functionality Name</t>
+  </si>
+  <si>
+    <t>Result of Functionality</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,8 +96,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,6 +393,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -340,16 +472,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>